--- a/[H] Requirements Elicitation/Analysis/Codes nav_distraction_1-5 (B).xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes nav_distraction_1-5 (B).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lucasjohnston.sharepoint.com/sites/Personal/Gedeelde documenten/Studie/[15] Master Thesis/[H] Requirements Elicitation/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{82182DD9-EFA4-4505-A2A5-E2F19DBC0C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{766F0D23-C26D-4393-A015-0EC3D0601D34}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{82182DD9-EFA4-4505-A2A5-E2F19DBC0C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F556282D-0327-4A66-840D-BC11853C0251}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="741" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="741" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Codes" sheetId="1" r:id="rId1"/>
@@ -2050,13 +2050,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2217,7 +2217,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2466,7 +2466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2506,87 +2506,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2600,16 +2600,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60CCC48-A888-4C7F-8B64-E4D9AB90A8D8}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="11" max="11" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2981,9 +2981,9 @@
       <selection activeCell="J11" sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>0.12115732368896925</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>0.10488245931283906</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>0.13562386980108498</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>9.5840867992766726E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>0.16998191681735986</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>8.4990958408679929E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>4.1591320072332731E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>0.11030741410488246</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>6.148282097649186E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3425,21 +3425,21 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C11" activeCellId="1" sqref="G1:G11 C1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>0.16998191681735986</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>0.13562386980108498</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>0.12115732368896925</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>0.11030741410488246</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>0.10488245931283906</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>9.5840867992766726E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>8.4990958408679929E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>7.4141048824593131E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>6.148282097649186E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -3711,9 +3711,9 @@
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3890,9 +3890,9 @@
       <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4026,7 +4026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4041,7 +4041,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -4069,9 +4069,9 @@
       <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4115,7 +4115,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4218,9 +4218,9 @@
       <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4352,9 +4352,9 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4428,7 +4428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4449,15 +4449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
     <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
@@ -4652,14 +4643,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A83795D-F634-4907-AF91-3788B92BE242}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AA4F48B-8DE6-4F1F-AFE6-4EE10E70AC28}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A6D6C03-3FAA-43F7-9578-957B6E8CCEBF}"/>
 </file>
--- a/[H] Requirements Elicitation/Analysis/Codes nav_distraction_1-5 (B).xlsx
+++ b/[H] Requirements Elicitation/Analysis/Codes nav_distraction_1-5 (B).xlsx
@@ -4449,10 +4449,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007E3BDA08E1E5A249978B11231DCF019A" ma:contentTypeVersion="11" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="a7ca215021bbdd190a5af84d80b652fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" xmlns:ns3="63184760-ab03-4f31-8d05-e57fd1de7cd7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="718f6025b888d8bdcce249ab03fa1f72" ns2:_="" ns3:_="">
-    <xsd:import namespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b"/>
-    <xsd:import namespace="63184760-ab03-4f31-8d05-e57fd1de7cd7"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004C9F4F6ABB567045B93F1D0C638A57F9" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d068a515c1ed1831a1655483f43bd136">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0e881998-9419-4d13-b84d-721ac971c709" xmlns:ns3="d6a03bd9-b31b-493a-b31e-bb4432e88c75" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61a36bc01df55011d34c3851fbde1e65" ns2:_="" ns3:_="">
+    <xsd:import namespace="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <xsd:import namespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -4465,10 +4465,12 @@
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -4476,7 +4478,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4a4afeb0-7e72-4d51-8cf1-662855e0da1b" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0e881998-9419-4d13-b84d-721ac971c709" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -4511,28 +4513,40 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="14" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="16" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5eaa6d45-cff0-4e56-a5c8-0425e41e0f9b" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63184760-ab03-4f31-8d05-e57fd1de7cd7" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d6a03bd9-b31b-493a-b31e-bb4432e88c75" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="17" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e1844fe6-43bb-44ca-860b-cdc46f75e607}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="63184760-ab03-4f31-8d05-e57fd1de7cd7">
+    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e1fa4af-7bd6-40f1-95bc-3c1c2580a70b}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d6a03bd9-b31b-493a-b31e-bb4432e88c75">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -4653,7 +4667,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A83795D-F634-4907-AF91-3788B92BE242}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DDE55F98-8ACA-447E-9D51-F5ADCA8FF1A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0e881998-9419-4d13-b84d-721ac971c709"/>
+    <ds:schemaRef ds:uri="d6a03bd9-b31b-493a-b31e-bb4432e88c75"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
